--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="220">
   <si>
     <t>TEST NO</t>
   </si>
@@ -652,6 +652,39 @@
   </si>
   <si>
     <t>Items available in assement.</t>
+  </si>
+  <si>
+    <t>Manager clicks on link to view or generate charts</t>
+  </si>
+  <si>
+    <t>All necessary charts are displayed</t>
+  </si>
+  <si>
+    <t>Manager can generate graphs and charts</t>
+  </si>
+  <si>
+    <t>Link to charts not available</t>
+  </si>
+  <si>
+    <t>Statistical charts available</t>
+  </si>
+  <si>
+    <t>fix  later</t>
+  </si>
+  <si>
+    <t>Do  nothing</t>
+  </si>
+  <si>
+    <t>T04_07</t>
+  </si>
+  <si>
+    <t>T04_08</t>
+  </si>
+  <si>
+    <t>T08_07</t>
+  </si>
+  <si>
+    <t>T08_08</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A17:Q61"/>
+  <dimension ref="A17:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,6 +1857,9 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>184</v>
+      </c>
       <c r="C46" s="3" t="s">
         <v>198</v>
       </c>
@@ -1854,6 +1890,9 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>216</v>
+      </c>
       <c r="C47" s="3" t="s">
         <v>201</v>
       </c>
@@ -1885,7 +1924,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>106</v>
@@ -2334,6 +2373,70 @@
         <v>42739</v>
       </c>
       <c r="Q61" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H62" s="7">
+        <v>43062</v>
+      </c>
+      <c r="K62" t="s">
+        <v>171</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M62" t="s">
+        <v>214</v>
+      </c>
+      <c r="N62" s="7">
+        <v>42739</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H63" s="7">
+        <v>43062</v>
+      </c>
+      <c r="K63" t="s">
+        <v>171</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M63" t="s">
+        <v>215</v>
+      </c>
+      <c r="N63" s="7">
+        <v>42739</v>
+      </c>
+      <c r="Q63" s="7">
         <v>42951</v>
       </c>
     </row>

--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekpenyong\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekpenyong\Documents\GitHub\Group1--EnterpriseGCW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="231">
   <si>
     <t>TEST NO</t>
   </si>
@@ -654,37 +654,70 @@
     <t>Items available in assement.</t>
   </si>
   <si>
-    <t>Manager clicks on link to view or generate charts</t>
-  </si>
-  <si>
-    <t>All necessary charts are displayed</t>
-  </si>
-  <si>
-    <t>Manager can generate graphs and charts</t>
-  </si>
-  <si>
-    <t>Link to charts not available</t>
-  </si>
-  <si>
-    <t>Statistical charts available</t>
-  </si>
-  <si>
-    <t>fix  later</t>
-  </si>
-  <si>
-    <t>Do  nothing</t>
-  </si>
-  <si>
-    <t>T04_07</t>
-  </si>
-  <si>
-    <t>T04_08</t>
-  </si>
-  <si>
     <t>T08_07</t>
   </si>
   <si>
-    <t>T08_08</t>
+    <t>when user clicks on a link to reveal the appropriate chart for exceptional report</t>
+  </si>
+  <si>
+    <t>no link for view chart</t>
+  </si>
+  <si>
+    <t>fix later</t>
+  </si>
+  <si>
+    <t>T09_08</t>
+  </si>
+  <si>
+    <t>Manager can View charts for exceptional report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager can click on View chart and show chart </t>
+  </si>
+  <si>
+    <t>T01_06</t>
+  </si>
+  <si>
+    <t>Admin set academic year</t>
+  </si>
+  <si>
+    <t>admin clicks on academy year to set the academy year</t>
+  </si>
+  <si>
+    <t>Academy year clicked</t>
+  </si>
+  <si>
+    <t>Academy year link not present</t>
+  </si>
+  <si>
+    <t>Admin can set duration for assesment in every the academy year</t>
+  </si>
+  <si>
+    <t>Click on Assessment to add new assessment and set duration</t>
+  </si>
+  <si>
+    <t>Assessment clicked and duration set</t>
+  </si>
+  <si>
+    <t>Assesment link not present</t>
+  </si>
+  <si>
+    <t>T01_07</t>
+  </si>
+  <si>
+    <t>T03_03</t>
+  </si>
+  <si>
+    <t>Student view his profile and edit</t>
+  </si>
+  <si>
+    <t>click on student ID on he navigation bar</t>
+  </si>
+  <si>
+    <t>A new page displays student information and enable edit profile</t>
+  </si>
+  <si>
+    <t>Student can’t view profile, link not present</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A17:Q63"/>
+  <dimension ref="A17:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,67 +1397,77 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K30" t="s">
+    <row r="30" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="3"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P30" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" t="s">
         <v>131</v>
       </c>
-      <c r="N30" s="7">
-        <v>42739</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="N31" s="7">
+        <v>42739</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="7">
-        <v>43042</v>
-      </c>
-      <c r="K31" t="s">
-        <v>132</v>
-      </c>
-      <c r="N31" s="7">
-        <v>42739</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>75</v>
@@ -1433,7 +1476,7 @@
         <v>43042</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N32" s="7">
         <v>42739</v>
@@ -1442,30 +1485,30 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" t="s">
-        <v>151</v>
+        <v>49</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="H33" s="7">
         <v>43042</v>
       </c>
       <c r="K33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N33" s="7">
         <v>42739</v>
@@ -1474,30 +1517,30 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
         <v>151</v>
       </c>
       <c r="H34" s="7">
         <v>43042</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N34" s="7">
         <v>42739</v>
@@ -1506,33 +1549,30 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="H35" s="7">
         <v>43042</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="K35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N35" s="7">
         <v>42739</v>
@@ -1543,28 +1583,31 @@
     </row>
     <row r="36" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" t="s">
-        <v>151</v>
+        <v>51</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="H36" s="7">
         <v>43042</v>
       </c>
+      <c r="I36" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="K36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N36" s="7">
         <v>42739</v>
@@ -1575,25 +1618,28 @@
     </row>
     <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>173</v>
+        <v>41</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" t="s">
+        <v>151</v>
       </c>
       <c r="H37" s="7">
         <v>43042</v>
       </c>
       <c r="K37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N37" s="7">
         <v>42739</v>
@@ -1604,87 +1650,85 @@
     </row>
     <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="7">
+        <v>43042</v>
+      </c>
+      <c r="K39" t="s">
+        <v>138</v>
+      </c>
+      <c r="N39" s="7">
+        <v>42739</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H40" s="7">
         <v>43042</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K40" t="s">
         <v>139</v>
-      </c>
-      <c r="N38" s="7">
-        <v>42739</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="K39" t="s">
-        <v>140</v>
-      </c>
-      <c r="N39" s="7">
-        <v>42739</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="7">
-        <v>43043</v>
-      </c>
-      <c r="K40" t="s">
-        <v>141</v>
       </c>
       <c r="N40" s="7">
         <v>42739</v>
@@ -1695,92 +1739,81 @@
     </row>
     <row r="41" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="K41" t="s">
+        <v>140</v>
+      </c>
+      <c r="N41" s="7">
+        <v>42739</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="7">
+        <v>43043</v>
+      </c>
+      <c r="K42" t="s">
+        <v>141</v>
+      </c>
+      <c r="N42" s="7">
+        <v>42739</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H43" s="7">
         <v>43044</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K43" t="s">
         <v>153</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="M41" t="s">
-        <v>174</v>
-      </c>
-      <c r="N41" s="7">
-        <v>42739</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H42" s="7">
-        <v>43045</v>
-      </c>
-      <c r="K42" t="s">
-        <v>154</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M42" t="s">
-        <v>174</v>
-      </c>
-      <c r="N42" s="7">
-        <v>42739</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H43" s="7">
-        <v>43046</v>
-      </c>
-      <c r="K43" t="s">
-        <v>155</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="M43" t="s">
         <v>174</v>
@@ -1794,28 +1827,28 @@
     </row>
     <row r="44" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H44" s="7">
-        <v>43047</v>
+        <v>43045</v>
       </c>
       <c r="K44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="M44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N44" s="7">
         <v>42739</v>
@@ -1826,25 +1859,25 @@
     </row>
     <row r="45" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H45" s="7">
-        <v>43048</v>
+        <v>43046</v>
       </c>
       <c r="K45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="M45" t="s">
         <v>174</v>
@@ -1858,32 +1891,31 @@
     </row>
     <row r="46" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H46" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="H46" s="7">
+        <v>43047</v>
+      </c>
+      <c r="K46" t="s">
+        <v>156</v>
+      </c>
       <c r="L46" s="3" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="M46" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="N46" s="7">
         <v>42739</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="P46" t="s">
-        <v>174</v>
       </c>
       <c r="Q46" s="7">
         <v>42951</v>
@@ -1891,125 +1923,117 @@
     </row>
     <row r="47" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="7">
+        <v>43048</v>
+      </c>
+      <c r="K47" t="s">
+        <v>157</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M47" t="s">
+        <v>174</v>
+      </c>
+      <c r="N47" s="7">
+        <v>42739</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="L48" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M48" t="s">
+        <v>206</v>
+      </c>
+      <c r="N48" s="7">
+        <v>42739</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P48" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="L47" s="3" t="s">
+      <c r="H49" s="7"/>
+      <c r="L49" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M49" t="s">
         <v>206</v>
       </c>
-      <c r="N47" s="7">
-        <v>42739</v>
-      </c>
-      <c r="O47" s="3" t="s">
+      <c r="N49" s="7">
+        <v>42739</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P49" t="s">
         <v>174</v>
       </c>
-      <c r="Q47" s="7">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>217</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="Q49" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H50" s="7">
         <v>43049</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K50" t="s">
         <v>158</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="M48" t="s">
-        <v>174</v>
-      </c>
-      <c r="N48" s="7">
-        <v>42739</v>
-      </c>
-      <c r="Q48" s="7">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>185</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="7">
-        <v>43050</v>
-      </c>
-      <c r="K49" t="s">
-        <v>159</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M49" t="s">
-        <v>174</v>
-      </c>
-      <c r="N49" s="7">
-        <v>42739</v>
-      </c>
-      <c r="Q49" s="7">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>186</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H50" s="7">
-        <v>43051</v>
-      </c>
-      <c r="K50" t="s">
-        <v>160</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="M50" t="s">
         <v>174</v>
@@ -2021,27 +2045,30 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="H51" s="7">
-        <v>43052</v>
+        <v>43050</v>
       </c>
       <c r="K51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M51" t="s">
         <v>174</v>
@@ -2053,27 +2080,27 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="H52" s="7">
-        <v>43053</v>
+        <v>43051</v>
       </c>
       <c r="K52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="M52" t="s">
         <v>174</v>
@@ -2087,25 +2114,25 @@
     </row>
     <row r="53" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="H53" s="7">
-        <v>43054</v>
+        <v>43052</v>
       </c>
       <c r="K53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M53" t="s">
         <v>174</v>
@@ -2119,28 +2146,28 @@
     </row>
     <row r="54" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H54" s="7">
-        <v>43055</v>
+        <v>43053</v>
       </c>
       <c r="K54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N54" s="7">
         <v>42739</v>
@@ -2149,27 +2176,27 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H55" s="7">
-        <v>43056</v>
+        <v>43054</v>
       </c>
       <c r="K55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M55" t="s">
         <v>174</v>
@@ -2181,94 +2208,94 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B56" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="7">
+        <v>43055</v>
+      </c>
+      <c r="K56" t="s">
+        <v>164</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M56" t="s">
+        <v>175</v>
+      </c>
+      <c r="N56" s="7">
+        <v>42739</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="7">
+        <v>43056</v>
+      </c>
+      <c r="K57" t="s">
+        <v>165</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M57" t="s">
+        <v>174</v>
+      </c>
+      <c r="N57" s="7">
+        <v>42739</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D58" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H58" s="7">
         <v>43057</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K58" t="s">
         <v>166</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="M56" t="s">
-        <v>174</v>
-      </c>
-      <c r="N56" s="7">
-        <v>42739</v>
-      </c>
-      <c r="Q56" s="7">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>193</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H57" s="7">
-        <v>43058</v>
-      </c>
-      <c r="K57" t="s">
-        <v>167</v>
-      </c>
-      <c r="L57" t="s">
-        <v>144</v>
-      </c>
-      <c r="M57" t="s">
-        <v>175</v>
-      </c>
-      <c r="N57" s="7">
-        <v>42739</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H58" s="7">
-        <v>43059</v>
-      </c>
-      <c r="K58" t="s">
-        <v>168</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="M58" t="s">
         <v>174</v>
@@ -2280,30 +2307,30 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="H59" s="7">
-        <v>43060</v>
+        <v>43058</v>
       </c>
       <c r="K59" t="s">
-        <v>169</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>125</v>
+        <v>167</v>
+      </c>
+      <c r="L59" t="s">
+        <v>144</v>
       </c>
       <c r="M59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N59" s="7">
         <v>42739</v>
@@ -2314,28 +2341,28 @@
     </row>
     <row r="60" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="H60" s="7">
-        <v>43061</v>
+        <v>43059</v>
       </c>
       <c r="K60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="M60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N60" s="7">
         <v>42739</v>
@@ -2344,27 +2371,27 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H61" s="7">
-        <v>43062</v>
+        <v>43060</v>
       </c>
       <c r="K61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="M61" t="s">
         <v>174</v>
@@ -2378,28 +2405,28 @@
     </row>
     <row r="62" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="H62" s="7">
-        <v>43062</v>
+        <v>43061</v>
       </c>
       <c r="K62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="M62" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="N62" s="7">
         <v>42739</v>
@@ -2408,18 +2435,18 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="H63" s="7">
         <v>43062</v>
@@ -2428,16 +2455,49 @@
         <v>171</v>
       </c>
       <c r="L63" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M63" t="s">
+        <v>174</v>
+      </c>
+      <c r="N63" s="7">
+        <v>42739</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P64" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>213</v>
-      </c>
-      <c r="M63" t="s">
-        <v>215</v>
-      </c>
-      <c r="N63" s="7">
-        <v>42739</v>
-      </c>
-      <c r="Q63" s="7">
-        <v>42951</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +2505,10 @@
     <mergeCell ref="C22:D22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D49" r:id="rId1"/>
-    <hyperlink ref="D50" r:id="rId2"/>
-    <hyperlink ref="D56" r:id="rId3"/>
-    <hyperlink ref="D57" r:id="rId4"/>
+    <hyperlink ref="D51" r:id="rId1"/>
+    <hyperlink ref="D52" r:id="rId2"/>
+    <hyperlink ref="D58" r:id="rId3"/>
+    <hyperlink ref="D59" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="232">
   <si>
     <t>TEST NO</t>
   </si>
@@ -718,6 +718,9 @@
   </si>
   <si>
     <t>Student can’t view profile, link not present</t>
+  </si>
+  <si>
+    <t>do nothing</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A17:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,6 +1355,9 @@
       <c r="I28" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="J28" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="K28" t="s">
         <v>129</v>
       </c>
@@ -1386,6 +1392,9 @@
       </c>
       <c r="I29" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="K29" t="s">
         <v>130</v>
@@ -1475,6 +1484,12 @@
       <c r="H32" s="7">
         <v>43042</v>
       </c>
+      <c r="I32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="K32" t="s">
         <v>132</v>
       </c>
@@ -1507,6 +1522,12 @@
       <c r="H33" s="7">
         <v>43042</v>
       </c>
+      <c r="I33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="K33" t="s">
         <v>133</v>
       </c>
@@ -1605,6 +1626,9 @@
       </c>
       <c r="I36" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="K36" t="s">
         <v>136</v>
@@ -1727,6 +1751,9 @@
       <c r="I40" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="J40" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="K40" t="s">
         <v>139</v>
       </c>
@@ -2017,6 +2044,9 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
       <c r="C50" s="3" t="s">
         <v>106</v>
       </c>
